--- a/biology/Botanique/Marron_de_Laguépie/Marron_de_Laguépie.xlsx
+++ b/biology/Botanique/Marron_de_Laguépie/Marron_de_Laguépie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marron_de_Lagu%C3%A9pie</t>
+          <t>Marron_de_Laguépie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Marron de Laguépie est le nom d'un cultivar naturel de châtaignier qui doit son nom à la commune de Laguépie (Tarn-et-Garonne).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marron_de_Lagu%C3%A9pie</t>
+          <t>Marron_de_Laguépie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété d'adaptation large a une belle couleur rouge acajou brillant, de taille moyenne et de très bonne qualité gustative.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marron_de_Lagu%C3%A9pie</t>
+          <t>Marron_de_Laguépie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est utilisée plutôt pour la consommation en frais grillée ou cuite à l’eau. C’est de par son calibre et son goût, la variété encore la plus commercialisée dans ses régions d’origine, sur les marchés locaux (Laguépie, Villefranche-de-Rouergue), mais aussi dans les régions parisienne et toulousaine.
 La variété a été utilisée comme géniteur par l’INRA pour la production de nouvelles variétés hybrides par croisement avec le châtaignier japonais (Marlhac : SC118, SC116, SC117 …)
